--- a/Results_Collection/VGG19 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
+++ b/Results_Collection/VGG19 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\PycharmProjects\untitled2\Numerosity-in-Neural-Networks\Results_Collection\VGG19 pretrained results\RDM_Evaluation_Results\R2_squared_linear_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922754B0-8751-41D5-B6DE-91DB2CE6D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="28">
   <si>
     <t>ROI</t>
   </si>
@@ -89,13 +106,22 @@
   </si>
   <si>
     <t>fc8</t>
+  </si>
+  <si>
+    <t>AVG NC V13</t>
+  </si>
+  <si>
+    <t>AVG NC V3ABV7</t>
+  </si>
+  <si>
+    <t>AVG NC IPS15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,15 +180,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +270,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +322,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +515,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -483,22 +558,22 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.1740181155770573</v>
+        <v>0.17401811557705729</v>
       </c>
       <c r="D2">
-        <v>55.65889783224733</v>
+        <v>55.658897832247327</v>
       </c>
       <c r="E2">
-        <v>7.049677557255446E-06</v>
+        <v>7.0496775572554459E-6</v>
       </c>
       <c r="F2">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G2">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -506,22 +581,22 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.1669150351450839</v>
+        <v>0.16691503514508391</v>
       </c>
       <c r="D3">
-        <v>53.38701006500865</v>
+        <v>53.387010065008653</v>
       </c>
       <c r="E3">
-        <v>5.772366081647768E-06</v>
+        <v>5.7723660816477677E-6</v>
       </c>
       <c r="F3">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G3">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -529,22 +604,22 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.2127681886026871</v>
+        <v>0.21276818860268709</v>
       </c>
       <c r="D4">
         <v>68.0529313406185</v>
       </c>
       <c r="E4">
-        <v>4.792530047305228E-06</v>
+        <v>4.792530047305228E-6</v>
       </c>
       <c r="F4">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G4">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -558,16 +633,16 @@
         <v>73.83717192630175</v>
       </c>
       <c r="E5">
-        <v>5.156450381986438E-06</v>
+        <v>5.1564503819864376E-6</v>
       </c>
       <c r="F5">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G5">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -578,19 +653,19 @@
         <v>0.2118376422958545</v>
       </c>
       <c r="D6">
-        <v>67.75530036324341</v>
+        <v>67.755300363243407</v>
       </c>
       <c r="E6">
-        <v>4.425467070226915E-06</v>
+        <v>4.4254670702269146E-6</v>
       </c>
       <c r="F6">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G6">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -598,22 +673,22 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.2706745448096649</v>
+        <v>0.27067454480966491</v>
       </c>
       <c r="D7">
-        <v>86.57401435128192</v>
+        <v>86.574014351281917</v>
       </c>
       <c r="E7">
-        <v>6.404909678738154E-06</v>
+        <v>6.4049096787381537E-6</v>
       </c>
       <c r="F7">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G7">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -621,22 +696,22 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.2454257782097136</v>
+        <v>0.24542577820971359</v>
       </c>
       <c r="D8">
-        <v>78.49831191124109</v>
+        <v>78.498311911241089</v>
       </c>
       <c r="E8">
-        <v>7.095009661433345E-06</v>
+        <v>7.0950096614333446E-6</v>
       </c>
       <c r="F8">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G8">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -644,22 +719,22 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>0.1980765661625732</v>
+        <v>0.19807656616257319</v>
       </c>
       <c r="D9">
-        <v>63.35388314283386</v>
+        <v>63.353883142833858</v>
       </c>
       <c r="E9">
-        <v>7.644091179333945E-06</v>
+        <v>7.6440911793339449E-6</v>
       </c>
       <c r="F9">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G9">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -670,19 +745,19 @@
         <v>0.1906193429087375</v>
       </c>
       <c r="D10">
-        <v>50.67967033753361</v>
+        <v>50.679670337533608</v>
       </c>
       <c r="E10">
-        <v>4.025781365659355E-06</v>
+        <v>4.0257813656593547E-6</v>
       </c>
       <c r="F10">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G10">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -690,22 +765,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0.192980953953261</v>
+        <v>0.19298095395326101</v>
       </c>
       <c r="D11">
         <v>51.30754821905181</v>
       </c>
       <c r="E11">
-        <v>5.302362017142091E-06</v>
+        <v>5.3023620171420906E-6</v>
       </c>
       <c r="F11">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G11">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -716,19 +791,19 @@
         <v>0.2544483735940935</v>
       </c>
       <c r="D12">
-        <v>67.64979615864138</v>
+        <v>67.649796158641379</v>
       </c>
       <c r="E12">
-        <v>2.382756740464047E-06</v>
+        <v>2.3827567404640471E-6</v>
       </c>
       <c r="F12">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G12">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -739,19 +814,19 @@
         <v>0.2914703364621879</v>
       </c>
       <c r="D13">
-        <v>77.49276825566371</v>
+        <v>77.492768255663705</v>
       </c>
       <c r="E13">
-        <v>1.698845415322164E-06</v>
+        <v>1.6988454153221639E-6</v>
       </c>
       <c r="F13">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G13">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -759,22 +834,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>0.2715768796545464</v>
+        <v>0.27157687965454641</v>
       </c>
       <c r="D14">
-        <v>72.20372561444589</v>
+        <v>72.203725614445887</v>
       </c>
       <c r="E14">
-        <v>4.45340080285024E-07</v>
+        <v>4.4534008028502401E-7</v>
       </c>
       <c r="F14">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G14">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -782,22 +857,22 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.3233061505159368</v>
+        <v>0.32330615051593681</v>
       </c>
       <c r="D15">
-        <v>85.95690697606349</v>
+        <v>85.956906976063493</v>
       </c>
       <c r="E15">
-        <v>7.851021380811827E-07</v>
+        <v>7.8510213808118274E-7</v>
       </c>
       <c r="F15">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G15">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -805,22 +880,22 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>0.2881333203094339</v>
+        <v>0.28813332030943389</v>
       </c>
       <c r="D16">
-        <v>76.6055609242778</v>
+        <v>76.605560924277796</v>
       </c>
       <c r="E16">
-        <v>8.472929145576456E-07</v>
+        <v>8.4729291455764556E-7</v>
       </c>
       <c r="F16">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G16">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -831,19 +906,19 @@
         <v>0.2323256322804807</v>
       </c>
       <c r="D17">
-        <v>61.76805708836655</v>
+        <v>61.768057088366547</v>
       </c>
       <c r="E17">
-        <v>8.096004030037472E-07</v>
+        <v>8.096004030037472E-7</v>
       </c>
       <c r="F17">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G17">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -854,19 +929,19 @@
         <v>0.1565858907639027</v>
       </c>
       <c r="D18">
-        <v>51.50650017873486</v>
+        <v>51.506500178734861</v>
       </c>
       <c r="E18">
-        <v>1.175630156486219E-05</v>
+        <v>1.175630156486219E-5</v>
       </c>
       <c r="F18">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G18">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -874,22 +949,22 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1668870665636545</v>
+        <v>0.16688706656365451</v>
       </c>
       <c r="D19">
-        <v>54.89491219071551</v>
+        <v>54.894912190715509</v>
       </c>
       <c r="E19">
-        <v>1.943660353602065E-05</v>
+        <v>1.9436603536020651E-5</v>
       </c>
       <c r="F19">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G19">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -900,19 +975,19 @@
         <v>0.2172751098745361</v>
       </c>
       <c r="D20">
-        <v>71.46927753830091</v>
+        <v>71.469277538300915</v>
       </c>
       <c r="E20">
-        <v>8.356572409583421E-06</v>
+        <v>8.356572409583421E-6</v>
       </c>
       <c r="F20">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G20">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -920,22 +995,22 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.2511333468754616</v>
+        <v>0.25113334687546163</v>
       </c>
       <c r="D21">
         <v>82.60641947128174</v>
       </c>
       <c r="E21">
-        <v>6.587342309669159E-06</v>
+        <v>6.5873423096691591E-6</v>
       </c>
       <c r="F21">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G21">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -946,19 +1021,19 @@
         <v>0.2272949131892637</v>
       </c>
       <c r="D22">
-        <v>74.76513643531386</v>
+        <v>74.765136435313863</v>
       </c>
       <c r="E22">
-        <v>1.480435670883801E-06</v>
+        <v>1.480435670883801E-6</v>
       </c>
       <c r="F22">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G22">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -966,22 +1041,22 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.2667228969088803</v>
+        <v>0.26672289690888029</v>
       </c>
       <c r="D23">
-        <v>87.73436016673922</v>
+        <v>87.734360166739222</v>
       </c>
       <c r="E23">
-        <v>1.083846681401269E-06</v>
+        <v>1.0838466814012691E-6</v>
       </c>
       <c r="F23">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G23">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -992,19 +1067,19 @@
         <v>0.2358613648893059</v>
       </c>
       <c r="D24">
-        <v>77.58293785961089</v>
+        <v>77.582937859610894</v>
       </c>
       <c r="E24">
-        <v>1.101055908640144E-06</v>
+        <v>1.101055908640144E-6</v>
       </c>
       <c r="F24">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G24">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1012,22 +1087,22 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.1900724117997808</v>
+        <v>0.19007241179978079</v>
       </c>
       <c r="D25">
-        <v>62.52137191018764</v>
+        <v>62.521371910187639</v>
       </c>
       <c r="E25">
-        <v>2.612402521409058E-06</v>
+        <v>2.6124025214090579E-6</v>
       </c>
       <c r="F25">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G25">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1035,22 +1110,22 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>0.05371632867727181</v>
+        <v>5.3716328677271809E-2</v>
       </c>
       <c r="D26">
-        <v>60.71855182523171</v>
+        <v>60.718551825231707</v>
       </c>
       <c r="E26">
-        <v>0.0009468812708023</v>
+        <v>9.4688127080229997E-4</v>
       </c>
       <c r="F26">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G26">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1058,22 +1133,22 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>0.05762043883383544</v>
+        <v>5.7620438833835441E-2</v>
       </c>
       <c r="D27">
-        <v>65.13158452329513</v>
+        <v>65.131584523295132</v>
       </c>
       <c r="E27">
-        <v>0.000878880420926593</v>
+        <v>8.7888042092659302E-4</v>
       </c>
       <c r="F27">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G27">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1081,22 +1156,22 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>0.07770967058624713</v>
+        <v>7.7709670586247129E-2</v>
       </c>
       <c r="D28">
-        <v>87.83955972049083</v>
+        <v>87.839559720490826</v>
       </c>
       <c r="E28">
-        <v>0.0004601258105651325</v>
+        <v>4.6012581056513251E-4</v>
       </c>
       <c r="F28">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G28">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1104,22 +1179,22 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>0.09236207217205186</v>
+        <v>9.2362072172051862E-2</v>
       </c>
       <c r="D29">
-        <v>104.4019836046128</v>
+        <v>104.40198360461279</v>
       </c>
       <c r="E29">
-        <v>0.0002263879859123385</v>
+        <v>2.2638798591233849E-4</v>
       </c>
       <c r="F29">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G29">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1127,22 +1202,22 @@
         <v>21</v>
       </c>
       <c r="C30">
-        <v>0.08763147585938522</v>
+        <v>8.7631475859385216E-2</v>
       </c>
       <c r="D30">
-        <v>99.05472766870157</v>
+        <v>99.054727668701574</v>
       </c>
       <c r="E30">
-        <v>0.000156917912013697</v>
+        <v>1.56917912013697E-4</v>
       </c>
       <c r="F30">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G30">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1150,22 +1225,22 @@
         <v>22</v>
       </c>
       <c r="C31">
-        <v>0.09522441538376901</v>
+        <v>9.5224415383769009E-2</v>
       </c>
       <c r="D31">
         <v>107.6374492241346</v>
       </c>
       <c r="E31">
-        <v>0.0007332060589586889</v>
+        <v>7.3320605895868887E-4</v>
       </c>
       <c r="F31">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G31">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1173,22 +1248,22 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>0.08406587262603578</v>
+        <v>8.4065872626035779E-2</v>
       </c>
       <c r="D32">
-        <v>95.0243281599588</v>
+        <v>95.024328159958799</v>
       </c>
       <c r="E32">
-        <v>0.001133081017632616</v>
+        <v>1.133081017632616E-3</v>
       </c>
       <c r="F32">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G32">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1196,22 +1271,22 @@
         <v>24</v>
       </c>
       <c r="C33">
-        <v>0.06737271276404841</v>
+        <v>6.7372712764048409E-2</v>
       </c>
       <c r="D33">
-        <v>76.15512177214731</v>
+        <v>76.155121772147311</v>
       </c>
       <c r="E33">
-        <v>0.001622674376745649</v>
+        <v>1.6226743767456489E-3</v>
       </c>
       <c r="F33">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G33">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1219,22 +1294,22 @@
         <v>17</v>
       </c>
       <c r="C34">
-        <v>0.02510837989879481</v>
+        <v>2.510837989879481E-2</v>
       </c>
       <c r="D34">
-        <v>22.7218073535946</v>
+        <v>22.721807353594599</v>
       </c>
       <c r="E34">
-        <v>0.0006280182094377328</v>
+        <v>6.2801820943773283E-4</v>
       </c>
       <c r="F34">
         <v>0.1105034450299688</v>
       </c>
       <c r="G34">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1242,22 +1317,22 @@
         <v>18</v>
       </c>
       <c r="C35">
-        <v>0.02437431256754369</v>
+        <v>2.4374312567543691E-2</v>
       </c>
       <c r="D35">
-        <v>22.05751373718107</v>
+        <v>22.057513737181068</v>
       </c>
       <c r="E35">
-        <v>0.0005657183266317484</v>
+        <v>5.6571832663174844E-4</v>
       </c>
       <c r="F35">
         <v>0.1105034450299688</v>
       </c>
       <c r="G35">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1265,22 +1340,22 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>0.03909238564592624</v>
+        <v>3.9092385645926243E-2</v>
       </c>
       <c r="D36">
-        <v>35.37662163865055</v>
+        <v>35.376621638650548</v>
       </c>
       <c r="E36">
-        <v>0.0003451987910885575</v>
+        <v>3.4519879108855752E-4</v>
       </c>
       <c r="F36">
         <v>0.1105034450299688</v>
       </c>
       <c r="G36">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1288,22 +1363,22 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>0.04825150605291659</v>
+        <v>4.8251506052916587E-2</v>
       </c>
       <c r="D37">
-        <v>43.66515997743842</v>
+        <v>43.665159977438421</v>
       </c>
       <c r="E37">
-        <v>0.0004144631522314428</v>
+        <v>4.1446315223144279E-4</v>
       </c>
       <c r="F37">
         <v>0.1105034450299688</v>
       </c>
       <c r="G37">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1311,22 +1386,22 @@
         <v>21</v>
       </c>
       <c r="C38">
-        <v>0.0581017236297267</v>
+        <v>5.8101723629726702E-2</v>
       </c>
       <c r="D38">
-        <v>52.57910612105297</v>
+        <v>52.579106121052973</v>
       </c>
       <c r="E38">
-        <v>0.0002350974034597912</v>
+        <v>2.3509740345979121E-4</v>
       </c>
       <c r="F38">
         <v>0.1105034450299688</v>
       </c>
       <c r="G38">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1334,22 +1409,22 @@
         <v>22</v>
       </c>
       <c r="C39">
-        <v>0.05889681683416616</v>
+        <v>5.8896816834166157E-2</v>
       </c>
       <c r="D39">
-        <v>53.29862505028076</v>
+        <v>53.298625050280762</v>
       </c>
       <c r="E39">
-        <v>0.0001235309565483099</v>
+        <v>1.2353095654830991E-4</v>
       </c>
       <c r="F39">
         <v>0.1105034450299688</v>
       </c>
       <c r="G39">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1357,22 +1432,22 @@
         <v>23</v>
       </c>
       <c r="C40">
-        <v>0.05442499920476771</v>
+        <v>5.4424999204767711E-2</v>
       </c>
       <c r="D40">
-        <v>49.25185743304885</v>
+        <v>49.251857433048848</v>
       </c>
       <c r="E40">
-        <v>0.000140069857882584</v>
+        <v>1.40069857882584E-4</v>
       </c>
       <c r="F40">
         <v>0.1105034450299688</v>
       </c>
       <c r="G40">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1380,22 +1455,22 @@
         <v>24</v>
       </c>
       <c r="C41">
-        <v>0.04562738423674238</v>
+        <v>4.5627384236742383E-2</v>
       </c>
       <c r="D41">
-        <v>41.29046313838283</v>
+        <v>41.290463138382833</v>
       </c>
       <c r="E41">
-        <v>0.0002317947739470171</v>
+        <v>2.3179477394701711E-4</v>
       </c>
       <c r="F41">
         <v>0.1105034450299688</v>
       </c>
       <c r="G41">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1403,22 +1478,22 @@
         <v>17</v>
       </c>
       <c r="C42">
-        <v>0.02547041257486278</v>
+        <v>2.547041257486278E-2</v>
       </c>
       <c r="D42">
         <v>18.20284058148815</v>
       </c>
       <c r="E42">
-        <v>8.034454442021905E-05</v>
+        <v>8.0344544420219045E-5</v>
       </c>
       <c r="F42">
         <v>0.1399254828434062</v>
       </c>
       <c r="G42">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1426,22 +1501,22 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>0.02291096932298015</v>
+        <v>2.2910969322980149E-2</v>
       </c>
       <c r="D43">
         <v>16.37369323829337</v>
       </c>
       <c r="E43">
-        <v>6.830238241681085E-05</v>
+        <v>6.8302382416810848E-5</v>
       </c>
       <c r="F43">
         <v>0.1399254828434062</v>
       </c>
       <c r="G43">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1449,22 +1524,22 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>0.03715685139139018</v>
+        <v>3.7156851391390182E-2</v>
       </c>
       <c r="D44">
         <v>26.55474230735603</v>
       </c>
       <c r="E44">
-        <v>5.521804717010573E-05</v>
+        <v>5.5218047170105731E-5</v>
       </c>
       <c r="F44">
         <v>0.1399254828434062</v>
       </c>
       <c r="G44">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1472,22 +1547,22 @@
         <v>20</v>
       </c>
       <c r="C45">
-        <v>0.04273032192508254</v>
+        <v>4.273032192508254E-2</v>
       </c>
       <c r="D45">
-        <v>30.53791279241325</v>
+        <v>30.537912792413248</v>
       </c>
       <c r="E45">
-        <v>4.966864768726343E-05</v>
+        <v>4.9668647687263427E-5</v>
       </c>
       <c r="F45">
         <v>0.1399254828434062</v>
       </c>
       <c r="G45">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1495,22 +1570,22 @@
         <v>21</v>
       </c>
       <c r="C46">
-        <v>0.05636869810687817</v>
+        <v>5.6368698106878168E-2</v>
       </c>
       <c r="D46">
-        <v>40.28479799491682</v>
+        <v>40.284797994916822</v>
       </c>
       <c r="E46">
-        <v>0.0002066161725000332</v>
+        <v>2.0661617250003321E-4</v>
       </c>
       <c r="F46">
         <v>0.1399254828434062</v>
       </c>
       <c r="G46">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -1518,22 +1593,22 @@
         <v>22</v>
       </c>
       <c r="C47">
-        <v>0.06089503561752785</v>
+        <v>6.0895035617527848E-2</v>
       </c>
       <c r="D47">
-        <v>43.51961799958688</v>
+        <v>43.519617999586877</v>
       </c>
       <c r="E47">
-        <v>0.0002625023595142645</v>
+        <v>2.6250235951426451E-4</v>
       </c>
       <c r="F47">
         <v>0.1399254828434062</v>
       </c>
       <c r="G47">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1541,22 +1616,22 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>0.06001534001334707</v>
+        <v>6.0015340013347067E-2</v>
       </c>
       <c r="D48">
-        <v>42.89092936739166</v>
+        <v>42.890929367391657</v>
       </c>
       <c r="E48">
-        <v>0.0005637999907555435</v>
+        <v>5.637999907555435E-4</v>
       </c>
       <c r="F48">
         <v>0.1399254828434062</v>
       </c>
       <c r="G48">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1564,22 +1639,22 @@
         <v>24</v>
       </c>
       <c r="C49">
-        <v>0.0541256156986756</v>
+        <v>5.4125615698675598E-2</v>
       </c>
       <c r="D49">
-        <v>38.68174302407004</v>
+        <v>38.681743024070038</v>
       </c>
       <c r="E49">
-        <v>0.00136362993233091</v>
+        <v>1.3636299323309101E-3</v>
       </c>
       <c r="F49">
         <v>0.1399254828434062</v>
       </c>
       <c r="G49">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1587,22 +1662,22 @@
         <v>17</v>
       </c>
       <c r="C50">
-        <v>0.01468089853766096</v>
+        <v>1.468089853766096E-2</v>
       </c>
       <c r="D50">
         <v>13.94935866756483</v>
       </c>
       <c r="E50">
-        <v>0.001359127213919529</v>
+        <v>1.3591272139195289E-3</v>
       </c>
       <c r="F50">
         <v>0.1052442545032347</v>
       </c>
       <c r="G50">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1610,22 +1685,22 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>0.01204239980540668</v>
+        <v>1.2042399805406679E-2</v>
       </c>
       <c r="D51">
         <v>11.44233465498732</v>
       </c>
       <c r="E51">
-        <v>0.001876238830702135</v>
+        <v>1.876238830702135E-3</v>
       </c>
       <c r="F51">
         <v>0.1052442545032347</v>
       </c>
       <c r="G51">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1633,22 +1708,22 @@
         <v>19</v>
       </c>
       <c r="C52">
-        <v>0.02113969481989296</v>
+        <v>2.113969481989296E-2</v>
       </c>
       <c r="D52">
-        <v>20.08631722432242</v>
+        <v>20.086317224322421</v>
       </c>
       <c r="E52">
-        <v>0.001055007797777466</v>
+        <v>1.055007797777466E-3</v>
       </c>
       <c r="F52">
         <v>0.1052442545032347</v>
       </c>
       <c r="G52">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1656,22 +1731,22 @@
         <v>20</v>
       </c>
       <c r="C53">
-        <v>0.02511962890070308</v>
+        <v>2.511962890070308E-2</v>
       </c>
       <c r="D53">
-        <v>23.86793371217336</v>
+        <v>23.867933712173361</v>
       </c>
       <c r="E53">
-        <v>0.001075129740082779</v>
+        <v>1.0751297400827791E-3</v>
       </c>
       <c r="F53">
         <v>0.1052442545032347</v>
       </c>
       <c r="G53">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1679,22 +1754,22 @@
         <v>21</v>
       </c>
       <c r="C54">
-        <v>0.03888083726953299</v>
+        <v>3.8880837269532988E-2</v>
       </c>
       <c r="D54">
-        <v>36.94342978916534</v>
+        <v>36.943429789165343</v>
       </c>
       <c r="E54">
-        <v>0.003390301202247185</v>
+        <v>3.3903012022471848E-3</v>
       </c>
       <c r="F54">
         <v>0.1052442545032347</v>
       </c>
       <c r="G54">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1702,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="C55">
-        <v>0.03869591911482338</v>
+        <v>3.8695919114823382E-2</v>
       </c>
       <c r="D55">
-        <v>36.76772598891282</v>
+        <v>36.767725988912822</v>
       </c>
       <c r="E55">
-        <v>0.002603765734087808</v>
+        <v>2.603765734087808E-3</v>
       </c>
       <c r="F55">
         <v>0.1052442545032347</v>
       </c>
       <c r="G55">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1725,22 +1800,22 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>0.03918041633721577</v>
+        <v>3.9180416337215772E-2</v>
       </c>
       <c r="D56">
-        <v>37.22808102176404</v>
+        <v>37.228081021764041</v>
       </c>
       <c r="E56">
-        <v>0.003245526021022651</v>
+        <v>3.2455260210226509E-3</v>
       </c>
       <c r="F56">
         <v>0.1052442545032347</v>
       </c>
       <c r="G56">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1748,22 +1823,25 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>0.03851063748977743</v>
+        <v>3.8510637489777427E-2</v>
       </c>
       <c r="D57">
-        <v>36.59167682982048</v>
+        <v>36.591676829820479</v>
       </c>
       <c r="E57">
-        <v>0.005351740547852662</v>
+        <v>5.3517405478526623E-3</v>
       </c>
       <c r="F57">
         <v>0.1052442545032347</v>
       </c>
       <c r="G57">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1774,19 +1852,23 @@
         <v>0.1946751427150035</v>
       </c>
       <c r="D58">
-        <v>50.64792305100833</v>
+        <v>50.647923051008327</v>
       </c>
       <c r="E58">
-        <v>2.86642091428153E-06</v>
+        <v>2.8664209142815301E-6</v>
       </c>
       <c r="F58">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G58">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I58">
+        <f>SUM(D58:D65) / 8</f>
+        <v>67.385383947769569</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1794,22 +1876,22 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>0.1962462317811499</v>
+        <v>0.19624623178114989</v>
       </c>
       <c r="D59">
         <v>51.05666757287549</v>
       </c>
       <c r="E59">
-        <v>3.774128722351547E-06</v>
+        <v>3.7741287223515468E-6</v>
       </c>
       <c r="F59">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G59">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1817,22 +1899,22 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>0.2581584472692905</v>
+        <v>0.25815844726929049</v>
       </c>
       <c r="D60">
-        <v>67.16414324865482</v>
+        <v>67.164143248654824</v>
       </c>
       <c r="E60">
-        <v>1.817422846453092E-06</v>
+        <v>1.8174228464530919E-6</v>
       </c>
       <c r="F60">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G60">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1840,22 +1922,22 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>0.2927513467873089</v>
+        <v>0.29275134678730891</v>
       </c>
       <c r="D61">
-        <v>76.16405196049691</v>
+        <v>76.164051960496906</v>
       </c>
       <c r="E61">
-        <v>1.455330522111669E-06</v>
+        <v>1.455330522111669E-6</v>
       </c>
       <c r="F61">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G61">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1863,22 +1945,22 @@
         <v>21</v>
       </c>
       <c r="C62">
-        <v>0.2724598695356873</v>
+        <v>0.27245986953568729</v>
       </c>
       <c r="D62">
-        <v>70.88489220697893</v>
+        <v>70.884892206978932</v>
       </c>
       <c r="E62">
-        <v>4.492860876847368E-07</v>
+        <v>4.4928608768473679E-7</v>
       </c>
       <c r="F62">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G62">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -1886,22 +1968,22 @@
         <v>22</v>
       </c>
       <c r="C63">
-        <v>0.3278845776426507</v>
+        <v>0.32788457764265072</v>
       </c>
       <c r="D63">
         <v>85.30453670897694</v>
       </c>
       <c r="E63">
-        <v>6.133269177472534E-07</v>
+        <v>6.1332691774725335E-7</v>
       </c>
       <c r="F63">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G63">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1909,22 +1991,25 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>0.2935521170386747</v>
+        <v>0.29355211703867468</v>
       </c>
       <c r="D64">
         <v>76.3723854411205</v>
       </c>
       <c r="E64">
-        <v>6.203921020767886E-07</v>
+        <v>6.2039210207678858E-7</v>
       </c>
       <c r="F64">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G64">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -1932,22 +2017,26 @@
         <v>24</v>
       </c>
       <c r="C65">
-        <v>0.2363428986321559</v>
+        <v>0.23634289863215591</v>
       </c>
       <c r="D65">
-        <v>61.48847139204462</v>
+        <v>61.488471392044623</v>
       </c>
       <c r="E65">
-        <v>7.78134382447108E-07</v>
+        <v>7.7813438244710804E-7</v>
       </c>
       <c r="F65">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G65">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I65">
+        <f>SUM(D66:D73) / 8</f>
+        <v>53.613363810189099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1955,22 +2044,22 @@
         <v>17</v>
       </c>
       <c r="C66">
-        <v>0.04324309455953521</v>
+        <v>4.3243094559535213E-2</v>
       </c>
       <c r="D66">
-        <v>32.70027211687786</v>
+        <v>32.700272116877862</v>
       </c>
       <c r="E66">
-        <v>0.000189039438718144</v>
+        <v>1.8903943871814401E-4</v>
       </c>
       <c r="F66">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G66">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1978,22 +2067,22 @@
         <v>18</v>
       </c>
       <c r="C67">
-        <v>0.04418098811615372</v>
+        <v>4.4180988116153723E-2</v>
       </c>
       <c r="D67">
         <v>33.40950384116779</v>
       </c>
       <c r="E67">
-        <v>0.0002146787870915744</v>
+        <v>2.1467878709157439E-4</v>
       </c>
       <c r="F67">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G67">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2001,22 +2090,22 @@
         <v>19</v>
       </c>
       <c r="C68">
-        <v>0.0662425063402947</v>
+        <v>6.6242506340294702E-2</v>
       </c>
       <c r="D68">
-        <v>50.09234434065272</v>
+        <v>50.092344340652723</v>
       </c>
       <c r="E68">
-        <v>5.087421705031755E-05</v>
+        <v>5.0874217050317553E-5</v>
       </c>
       <c r="F68">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G68">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2024,22 +2113,22 @@
         <v>20</v>
       </c>
       <c r="C69">
-        <v>0.08149637407123696</v>
+        <v>8.1496374071236957E-2</v>
       </c>
       <c r="D69">
-        <v>61.62726409413938</v>
+        <v>61.627264094139377</v>
       </c>
       <c r="E69">
-        <v>2.186732956596954E-05</v>
+        <v>2.1867329565969539E-5</v>
       </c>
       <c r="F69">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G69">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2047,22 +2136,22 @@
         <v>21</v>
       </c>
       <c r="C70">
-        <v>0.08970077379637006</v>
+        <v>8.9700773796370065E-2</v>
       </c>
       <c r="D70">
-        <v>67.83140157089016</v>
+        <v>67.831401570890165</v>
       </c>
       <c r="E70">
-        <v>8.389941600114543E-06</v>
+        <v>8.3899416001145435E-6</v>
       </c>
       <c r="F70">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G70">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2070,22 +2159,22 @@
         <v>22</v>
       </c>
       <c r="C71">
-        <v>0.09087113025829893</v>
+        <v>9.0871130258298932E-2</v>
       </c>
       <c r="D71">
-        <v>68.71642090562187</v>
+        <v>68.716420905621874</v>
       </c>
       <c r="E71">
-        <v>4.964513121735339E-05</v>
+        <v>4.9645131217353392E-5</v>
       </c>
       <c r="F71">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G71">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -2093,22 +2182,22 @@
         <v>23</v>
       </c>
       <c r="C72">
-        <v>0.08257329038266845</v>
+        <v>8.2573290382668446E-2</v>
       </c>
       <c r="D72">
-        <v>62.4416243241278</v>
+        <v>62.441624324127801</v>
       </c>
       <c r="E72">
-        <v>9.754203999296069E-05</v>
+        <v>9.7542039992960694E-5</v>
       </c>
       <c r="F72">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G72">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -2116,22 +2205,25 @@
         <v>24</v>
       </c>
       <c r="C73">
-        <v>0.06888168178008827</v>
+        <v>6.8881681780088272E-2</v>
       </c>
       <c r="D73">
-        <v>52.08807928803522</v>
+        <v>52.088079288035217</v>
       </c>
       <c r="E73">
-        <v>0.000168605706466835</v>
+        <v>1.6860570646683501E-4</v>
       </c>
       <c r="F73">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G73">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2139,22 +2231,26 @@
         <v>17</v>
       </c>
       <c r="C74">
-        <v>0.02193778452726843</v>
+        <v>2.1937784527268429E-2</v>
       </c>
       <c r="D74">
         <v>15.65795923978111</v>
       </c>
       <c r="E74">
-        <v>0.0002024392205675956</v>
+        <v>2.0243922056759561E-4</v>
       </c>
       <c r="F74">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G74">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+      <c r="I74">
+        <f>SUM(D74:D81) /8</f>
+        <v>28.536623276416027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2162,22 +2258,22 @@
         <v>18</v>
       </c>
       <c r="C75">
-        <v>0.01904558059051518</v>
+        <v>1.9045580590515181E-2</v>
       </c>
       <c r="D75">
         <v>13.59366640754334</v>
       </c>
       <c r="E75">
-        <v>0.0002682446552030612</v>
+        <v>2.6824465520306119E-4</v>
       </c>
       <c r="F75">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G75">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2185,22 +2281,22 @@
         <v>19</v>
       </c>
       <c r="C76">
-        <v>0.03178879803073335</v>
+        <v>3.1788798030733353E-2</v>
       </c>
       <c r="D76">
         <v>22.68905974658297</v>
       </c>
       <c r="E76">
-        <v>0.0001387569513631883</v>
+        <v>1.3875695136318831E-4</v>
       </c>
       <c r="F76">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G76">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2208,22 +2304,22 @@
         <v>20</v>
       </c>
       <c r="C77">
-        <v>0.03673563027298161</v>
+        <v>3.6735630272981608E-2</v>
       </c>
       <c r="D77">
         <v>26.21983093812602</v>
       </c>
       <c r="E77">
-        <v>0.0001190053012983143</v>
+        <v>1.190053012983143E-4</v>
       </c>
       <c r="F77">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G77">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2231,22 +2327,22 @@
         <v>21</v>
       </c>
       <c r="C78">
-        <v>0.05152518349460904</v>
+        <v>5.1525183494609043E-2</v>
       </c>
       <c r="D78">
-        <v>36.77578389823334</v>
+        <v>36.775783898233342</v>
       </c>
       <c r="E78">
-        <v>0.0003976696103760244</v>
+        <v>3.9766961037602443E-4</v>
       </c>
       <c r="F78">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G78">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2254,22 +2350,22 @@
         <v>22</v>
       </c>
       <c r="C79">
-        <v>0.05438173094214362</v>
+        <v>5.4381730942143623E-2</v>
       </c>
       <c r="D79">
         <v>38.81462712984596</v>
       </c>
       <c r="E79">
-        <v>0.0004030573255985421</v>
+        <v>4.0305732559854212E-4</v>
       </c>
       <c r="F79">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G79">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2277,22 +2373,22 @@
         <v>23</v>
       </c>
       <c r="C80">
-        <v>0.05421226005669914</v>
+        <v>5.4212260056699137E-2</v>
       </c>
       <c r="D80">
-        <v>38.6936683241233</v>
+        <v>38.693668324123301</v>
       </c>
       <c r="E80">
-        <v>0.0007006508724064978</v>
+        <v>7.0065087240649777E-4</v>
       </c>
       <c r="F80">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G80">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2300,19 +2396,19 @@
         <v>24</v>
       </c>
       <c r="C81">
-        <v>0.05022584712282803</v>
+        <v>5.022584712282803E-2</v>
       </c>
       <c r="D81">
-        <v>35.84839052709216</v>
+        <v>35.848390527092157</v>
       </c>
       <c r="E81">
-        <v>0.001581109973850583</v>
+        <v>1.5811099738505831E-3</v>
       </c>
       <c r="F81">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G81">
-        <v>0.2045781121629859</v>
+        <v>0.20457811216298591</v>
       </c>
     </row>
   </sheetData>
